--- a/data/trans_orig/P16B06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90B3DAD4-5A7B-4B5D-B621-A9FE23532400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEAD22B6-ADF1-4185-8021-53924A57DBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{81D6904B-37CA-4BFD-B585-1A94C7677A20}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8480D2F0-5DBC-4EFB-90C2-A84C527102B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="222">
   <si>
     <t>Porcentaje de pastillas para dormir recetados en 2007 (Tasa respuesta: 3,12%)</t>
   </si>
@@ -100,7 +100,7 @@
     <t>87,8%</t>
   </si>
   <si>
-    <t>52,3%</t>
+    <t>52,43%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -109,13 +109,13 @@
     <t>94,29%</t>
   </si>
   <si>
-    <t>72,19%</t>
+    <t>68,26%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>47,7%</t>
+    <t>47,57%</t>
   </si>
   <si>
     <t>0%</t>
@@ -127,7 +127,7 @@
     <t>5,71%</t>
   </si>
   <si>
-    <t>27,81%</t>
+    <t>31,74%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -136,43 +136,43 @@
     <t>94,04%</t>
   </si>
   <si>
-    <t>68,87%</t>
+    <t>69,89%</t>
   </si>
   <si>
     <t>92,77%</t>
   </si>
   <si>
-    <t>73,56%</t>
+    <t>76,6%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>31,13%</t>
+    <t>30,11%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>26,44%</t>
+    <t>23,4%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -181,43 +181,43 @@
     <t>87,45%</t>
   </si>
   <si>
-    <t>51,64%</t>
+    <t>51,11%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>83,73%</t>
+    <t>85,54%</t>
   </si>
   <si>
     <t>93,35%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>48,36%</t>
+    <t>48,89%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>16,27%</t>
+    <t>14,46%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -226,7 +226,7 @@
     <t>90,85%</t>
   </si>
   <si>
-    <t>77,11%</t>
+    <t>75,39%</t>
   </si>
   <si>
     <t>97,2%</t>
@@ -235,469 +235,475 @@
     <t>96,61%</t>
   </si>
   <si>
-    <t>88,16%</t>
+    <t>89,06%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>88,64%</t>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de pastillas para dormir recetados en 2012 (Tasa respuesta: 4,04%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>Porcentaje de pastillas para dormir recetados en 2015 (Tasa respuesta: 4,87%)</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>98,03%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de pastillas para dormir recetados en 2012 (Tasa respuesta: 4,04%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>Porcentaje de pastillas para dormir recetados en 2015 (Tasa respuesta: 4,87%)</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
+    <t>25,57%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>88,97%</t>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>97,62%</t>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>11,03%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,38%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C065871-3E80-43C6-B365-013A005E7F45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B56630-248A-468A-9175-5EFCD1CF7CB8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2166,7 +2172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230BC6D6-BF17-4E7D-896B-FB1F34C68244}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28372466-BC89-4BEE-B533-0F7D4F644CEC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3229,7 +3235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EBE7A4-F6C7-495B-8472-05067AFCC0CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBF929B-7BF0-4E29-A27F-79C6B3AF6D90}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3833,10 +3839,10 @@
         <v>52885</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3848,10 +3854,10 @@
         <v>70194</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -3869,13 +3875,13 @@
         <v>1017</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3884,13 +3890,13 @@
         <v>942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3899,13 +3905,13 @@
         <v>1958</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3979,13 @@
         <v>25708</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -3988,13 +3994,13 @@
         <v>87458</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>100</v>
@@ -4003,13 +4009,13 @@
         <v>113167</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4030,13 @@
         <v>2934</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -4039,13 +4045,13 @@
         <v>5584</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4054,13 +4060,13 @@
         <v>8517</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4134,13 @@
         <v>83010</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>227</v>
@@ -4143,13 +4149,13 @@
         <v>253306</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>306</v>
@@ -4158,10 +4164,10 @@
         <v>336315</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>212</v>
@@ -4182,10 +4188,10 @@
         <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -4194,13 +4200,13 @@
         <v>10569</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -4209,13 +4215,13 @@
         <v>14520</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEAD22B6-ADF1-4185-8021-53924A57DBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A6EC9D4-42AE-4760-896C-5935679058B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8480D2F0-5DBC-4EFB-90C2-A84C527102B2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CFD24AAF-4F80-431E-B552-4D608D3B005E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -94,13 +94,13 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>87,8%</t>
   </si>
   <si>
-    <t>52,43%</t>
+    <t>42,09%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -109,13 +109,13 @@
     <t>94,29%</t>
   </si>
   <si>
-    <t>68,26%</t>
+    <t>71,36%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>47,57%</t>
+    <t>57,91%</t>
   </si>
   <si>
     <t>0%</t>
@@ -127,499 +127,499 @@
     <t>5,71%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>69,89%</t>
+    <t>73,47%</t>
   </si>
   <si>
     <t>92,77%</t>
   </si>
   <si>
-    <t>76,6%</t>
+    <t>78,06%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>30,11%</t>
+    <t>26,53%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>23,4%</t>
+    <t>21,94%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>51,11%</t>
+    <t>51,95%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>85,54%</t>
+    <t>83,58%</t>
   </si>
   <si>
     <t>93,35%</t>
   </si>
   <si>
-    <t>81,13%</t>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de pastillas para dormir recetados en 2012 (Tasa respuesta: 4,04%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>Porcentaje de pastillas para dormir recetados en 2016 (Tasa respuesta: 4,87%)</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de pastillas para dormir recetados en 2012 (Tasa respuesta: 4,04%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>Porcentaje de pastillas para dormir recetados en 2015 (Tasa respuesta: 4,87%)</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
+    <t>7,26%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
     <t>89,76%</t>
   </si>
   <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
   <si>
     <t>94,0%</t>
   </si>
   <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>86,44%</t>
+    <t>86,16%</t>
   </si>
   <si>
     <t>96,62%</t>
@@ -628,19 +628,19 @@
     <t>10,24%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
   </si>
   <si>
     <t>7,0%</t>
@@ -649,61 +649,61 @@
     <t>3,38%</t>
   </si>
   <si>
-    <t>13,56%</t>
+    <t>13,84%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B56630-248A-468A-9175-5EFCD1CF7CB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E71881-7E33-417B-B045-596B0B8FAD47}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2172,7 +2172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28372466-BC89-4BEE-B533-0F7D4F644CEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED38F0E-3AF6-41EF-B4B3-223515FEC2D7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3235,7 +3235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBF929B-7BF0-4E29-A27F-79C6B3AF6D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF0C4CC-817F-4D11-8D5D-404C6A7BEA69}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3839,10 +3839,10 @@
         <v>52885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3854,10 +3854,10 @@
         <v>70194</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -3890,13 +3890,13 @@
         <v>942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3905,13 +3905,13 @@
         <v>1958</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A6EC9D4-42AE-4760-896C-5935679058B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8230344D-CB5A-42C8-9FA4-11BD7B515437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CFD24AAF-4F80-431E-B552-4D608D3B005E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F85A2B01-329F-4B65-A84A-4A42826F8E70}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="220">
   <si>
     <t>Porcentaje de pastillas para dormir recetados en 2007 (Tasa respuesta: 3,12%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -100,7 +100,7 @@
     <t>87,8%</t>
   </si>
   <si>
-    <t>42,09%</t>
+    <t>52,3%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -109,13 +109,13 @@
     <t>94,29%</t>
   </si>
   <si>
-    <t>71,36%</t>
+    <t>72,19%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>57,91%</t>
+    <t>47,7%</t>
   </si>
   <si>
     <t>0%</t>
@@ -127,7 +127,7 @@
     <t>5,71%</t>
   </si>
   <si>
-    <t>28,64%</t>
+    <t>27,81%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -136,43 +136,43 @@
     <t>94,04%</t>
   </si>
   <si>
-    <t>73,47%</t>
+    <t>68,87%</t>
   </si>
   <si>
     <t>92,77%</t>
   </si>
   <si>
-    <t>78,06%</t>
+    <t>73,56%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>26,53%</t>
+    <t>31,13%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>21,94%</t>
+    <t>26,44%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -181,43 +181,43 @@
     <t>87,45%</t>
   </si>
   <si>
-    <t>51,95%</t>
+    <t>51,64%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>83,58%</t>
+    <t>83,73%</t>
   </si>
   <si>
     <t>93,35%</t>
   </si>
   <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>48,05%</t>
+    <t>48,36%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>16,42%</t>
+    <t>16,27%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -226,103 +226,103 @@
     <t>90,85%</t>
   </si>
   <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>87,99%</t>
+    <t>88,16%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>12,01%</t>
+    <t>11,84%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>95,05%</t>
   </si>
   <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -352,49 +352,49 @@
     <t>91,64%</t>
   </si>
   <si>
-    <t>64,54%</t>
+    <t>63,97%</t>
   </si>
   <si>
     <t>97,75%</t>
   </si>
   <si>
-    <t>86,49%</t>
+    <t>90,72%</t>
   </si>
   <si>
     <t>8,36%</t>
   </si>
   <si>
-    <t>35,46%</t>
+    <t>36,03%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>13,51%</t>
+    <t>9,28%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>93,16%</t>
+    <t>93,07%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>94,61%</t>
+    <t>93,93%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>6,84%</t>
+    <t>6,93%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>5,39%</t>
+    <t>6,07%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -418,139 +418,139 @@
     <t>96,45%</t>
   </si>
   <si>
-    <t>80,12%</t>
+    <t>81,01%</t>
   </si>
   <si>
     <t>94,73%</t>
   </si>
   <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>95,21%</t>
   </si>
   <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>19,88%</t>
+    <t>18,99%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>Porcentaje de pastillas para dormir recetados en 2016 (Tasa respuesta: 4,87%)</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
     <t>90,81%</t>
   </si>
   <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>Porcentaje de pastillas para dormir recetados en 2016 (Tasa respuesta: 4,87%)</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
     <t>91,73%</t>
   </si>
   <si>
     <t>96,43%</t>
   </si>
   <si>
-    <t>89,14%</t>
+    <t>88,72%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>91,17%</t>
+    <t>90,61%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -559,151 +559,145 @@
     <t>3,57%</t>
   </si>
   <si>
-    <t>10,86%</t>
+    <t>11,28%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>8,83%</t>
+    <t>9,39%</t>
   </si>
   <si>
     <t>94,45%</t>
   </si>
   <si>
-    <t>75,85%</t>
+    <t>66,69%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>92,74%</t>
+    <t>91,02%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
+    <t>90,48%</t>
+  </si>
+  <si>
     <t>5,55%</t>
   </si>
   <si>
-    <t>24,15%</t>
+    <t>33,31%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>7,26%</t>
+    <t>8,98%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
+    <t>9,52%</t>
+  </si>
+  <si>
     <t>89,76%</t>
   </si>
   <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>94,0%</t>
   </si>
   <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>10,24%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>88,97%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>97,62%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>11,03%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>2,38%</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E71881-7E33-417B-B045-596B0B8FAD47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD10105-D3D5-46EB-921C-93C75391825F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2172,7 +2166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED38F0E-3AF6-41EF-B4B3-223515FEC2D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520B0D5-ADA8-4C05-9CC5-2617E41BEA73}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3235,7 +3229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF0C4CC-817F-4D11-8D5D-404C6A7BEA69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB24E74-E27F-4A51-A6EA-47C8A09B93A5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3857,7 +3851,7 @@
         <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -3875,13 +3869,13 @@
         <v>1017</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3890,13 +3884,13 @@
         <v>942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3905,13 +3899,13 @@
         <v>1958</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3973,13 @@
         <v>25708</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -3994,13 +3988,13 @@
         <v>87458</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>100</v>
@@ -4009,13 +4003,13 @@
         <v>113167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4024,13 @@
         <v>2934</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -4045,13 +4039,13 @@
         <v>5584</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4060,13 +4054,13 @@
         <v>8517</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4128,13 @@
         <v>83010</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>227</v>
@@ -4149,13 +4143,13 @@
         <v>253306</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>306</v>
@@ -4164,10 +4158,10 @@
         <v>336315</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>212</v>
@@ -4188,10 +4182,10 @@
         <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -4200,13 +4194,13 @@
         <v>10569</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -4215,13 +4209,13 @@
         <v>14520</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8230344D-CB5A-42C8-9FA4-11BD7B515437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D849E5E-C641-4858-AF8F-E43B32FE6593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F85A2B01-329F-4B65-A84A-4A42826F8E70}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A4FA1517-1F4E-4D3D-BE9C-69F3BCDC4650}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="216">
   <si>
     <t>Porcentaje de pastillas para dormir recetados en 2007 (Tasa respuesta: 3,12%)</t>
   </si>
@@ -67,324 +67,306 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>50,12%</t>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de pastillas para dormir recetados en 2012 (Tasa respuesta: 4,04%)</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de pastillas para dormir recetados en 2012 (Tasa respuesta: 4,04%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
     <t>1,36%</t>
   </si>
   <si>
@@ -514,25 +496,31 @@
     <t>Porcentaje de pastillas para dormir recetados en 2016 (Tasa respuesta: 4,87%)</t>
   </si>
   <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>90,81%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>9,19%</t>
@@ -1109,8 +1097,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD10105-D3D5-46EB-921C-93C75391825F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0107D977-4D32-4DFA-A5B6-588839E85736}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1227,66 +1215,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7554</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
       <c r="I4" s="7">
-        <v>863</v>
+        <v>10647</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>863</v>
+        <v>18202</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1050</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1295,28 +1287,28 @@
         <v>867</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>867</v>
+        <v>1916</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1325,151 +1317,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8604</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>1730</v>
+        <v>11514</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N6" s="7">
-        <v>1730</v>
+        <v>20118</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>7554</v>
+        <v>14984</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>9784</v>
+        <v>29699</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N7" s="7">
-        <v>17338</v>
+        <v>44682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>2314</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>1050</v>
+        <v>3265</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1478,153 +1472,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>8604</v>
+        <v>15934</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7">
-        <v>9784</v>
+        <v>32013</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="N9" s="7">
-        <v>18388</v>
+        <v>47947</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>14984</v>
+        <v>10974</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>29699</v>
+        <v>35843</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N10" s="7">
-        <v>44682</v>
+        <v>46816</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>950</v>
+        <v>1575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>2314</v>
+        <v>1759</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>3265</v>
+        <v>3335</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,153 +1627,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>15934</v>
+        <v>12549</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I12" s="7">
-        <v>32013</v>
+        <v>37602</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N12" s="7">
-        <v>47947</v>
+        <v>50151</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>10974</v>
+        <v>25289</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>35843</v>
+        <v>57526</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="N13" s="7">
-        <v>46816</v>
+        <v>82815</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>1575</v>
+        <v>2548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1759</v>
+        <v>2017</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>3335</v>
+        <v>4565</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,153 +1782,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>12549</v>
+        <v>27837</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>37602</v>
+        <v>59543</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="N15" s="7">
-        <v>50151</v>
+        <v>87380</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7">
-        <v>25289</v>
+        <v>58801</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="I16" s="7">
-        <v>57526</v>
+        <v>133714</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
+        <v>190</v>
+      </c>
+      <c r="N16" s="7">
+        <v>192515</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="N16" s="7">
-        <v>82815</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>2548</v>
+        <v>6123</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>2017</v>
+        <v>6958</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="7">
         <v>13</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" s="7">
-        <v>5</v>
-      </c>
       <c r="N17" s="7">
-        <v>4565</v>
+        <v>13081</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,217 +1937,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D18" s="7">
-        <v>27837</v>
+        <v>64924</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="I18" s="7">
-        <v>59543</v>
+        <v>140672</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="N18" s="7">
-        <v>87380</v>
+        <v>205596</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>61</v>
-      </c>
-      <c r="D19" s="7">
-        <v>58801</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="7">
-        <v>129</v>
-      </c>
-      <c r="I19" s="7">
-        <v>133714</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M19" s="7">
-        <v>190</v>
-      </c>
-      <c r="N19" s="7">
-        <v>192515</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6</v>
-      </c>
-      <c r="D20" s="7">
-        <v>6123</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="7">
-        <v>7</v>
-      </c>
-      <c r="I20" s="7">
-        <v>6958</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="7">
-        <v>13</v>
-      </c>
-      <c r="N20" s="7">
-        <v>13081</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="A19" t="s">
         <v>92</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>67</v>
-      </c>
-      <c r="D21" s="7">
-        <v>64924</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="7">
-        <v>136</v>
-      </c>
-      <c r="I21" s="7">
-        <v>140672</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="7">
-        <v>203</v>
-      </c>
-      <c r="N21" s="7">
-        <v>205596</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>95</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2166,8 +2004,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520B0D5-ADA8-4C05-9CC5-2617E41BEA73}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE316A4-FA45-45A2-B9C7-04BD0C39E8AC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2183,7 +2021,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2284,70 +2122,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>2551</v>
+        <v>11866</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>33</v>
+      </c>
+      <c r="I4" s="7">
+        <v>33855</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="7">
+        <v>45</v>
+      </c>
+      <c r="N4" s="7">
+        <v>45721</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="7">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6239</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="7">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7">
-        <v>8790</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2356,28 +2194,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>101</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,153 +2224,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7">
-        <v>2551</v>
+        <v>12716</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>6239</v>
+        <v>33855</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="N6" s="7">
-        <v>8790</v>
+        <v>46571</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>9314</v>
+        <v>10785</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7">
+        <v>68</v>
+      </c>
+      <c r="I7" s="7">
+        <v>76682</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="7">
-        <v>27</v>
-      </c>
-      <c r="I7" s="7">
-        <v>27616</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="N7" s="7">
-        <v>36930</v>
+        <v>87468</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>108</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>850</v>
+        <v>1055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,105 +2382,105 @@
         <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>10164</v>
+        <v>10785</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I9" s="7">
-        <v>27616</v>
+        <v>77737</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="N9" s="7">
-        <v>37780</v>
+        <v>88523</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>10785</v>
+        <v>18431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>76682</v>
+        <v>41907</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N10" s="7">
-        <v>87468</v>
+        <v>60338</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2651,40 +2489,40 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1055</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1055</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>118</v>
@@ -2696,153 +2534,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>10785</v>
+        <v>18431</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="I12" s="7">
-        <v>77737</v>
+        <v>41907</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="N12" s="7">
-        <v>88523</v>
+        <v>60338</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>22</v>
+      </c>
+      <c r="D13" s="7">
+        <v>25294</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="7">
-        <v>18431</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="H13" s="7">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I13" s="7">
-        <v>41907</v>
+        <v>64777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="M13" s="7">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="N13" s="7">
-        <v>60338</v>
+        <v>90070</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>3602</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>4532</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,153 +2689,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D15" s="7">
-        <v>18431</v>
+        <v>26224</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="I15" s="7">
-        <v>41907</v>
+        <v>68379</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="N15" s="7">
-        <v>60338</v>
+        <v>94602</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>25294</v>
+        <v>66377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="I16" s="7">
-        <v>64777</v>
+        <v>217221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
-        <v>84</v>
+        <v>257</v>
       </c>
       <c r="N16" s="7">
-        <v>90070</v>
+        <v>283597</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>930</v>
+        <v>1779</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>3602</v>
+        <v>4657</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>4532</v>
+        <v>6437</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,217 +2844,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D18" s="7">
-        <v>26224</v>
+        <v>68156</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="I18" s="7">
-        <v>68379</v>
+        <v>221878</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="N18" s="7">
-        <v>94602</v>
+        <v>290034</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>57</v>
-      </c>
-      <c r="D19" s="7">
-        <v>66377</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="7">
-        <v>200</v>
-      </c>
-      <c r="I19" s="7">
-        <v>217221</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" s="7">
-        <v>257</v>
-      </c>
-      <c r="N19" s="7">
-        <v>283597</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1779</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>4657</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6437</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>59</v>
-      </c>
-      <c r="D21" s="7">
-        <v>68156</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="7">
-        <v>204</v>
-      </c>
-      <c r="I21" s="7">
-        <v>221878</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="7">
-        <v>263</v>
-      </c>
-      <c r="N21" s="7">
-        <v>290034</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>95</v>
+      <c r="A19" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3229,8 +2911,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB24E74-E27F-4A51-A6EA-47C8A09B93A5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC9B49A-76ED-4225-9ED2-E97A80B89083}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3246,7 +2928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3347,55 +3029,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>3173</v>
+        <v>15485</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="I4" s="7">
-        <v>5903</v>
+        <v>55706</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="N4" s="7">
-        <v>9076</v>
+        <v>71191</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3404,43 +3086,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1925</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,108 +3131,108 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>3173</v>
+        <v>15485</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I6" s="7">
-        <v>5903</v>
+        <v>57631</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="N6" s="7">
-        <v>9076</v>
+        <v>73116</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7">
+        <v>24508</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7">
-        <v>12312</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I7" s="7">
-        <v>49803</v>
+        <v>57256</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="N7" s="7">
-        <v>62115</v>
+        <v>81764</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3559,43 +3241,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1925</v>
+        <v>2119</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1925</v>
+        <v>2119</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,153 +3286,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7">
-        <v>12312</v>
+        <v>24508</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I9" s="7">
-        <v>51728</v>
+        <v>59375</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="N9" s="7">
-        <v>64040</v>
+        <v>83883</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>24508</v>
+        <v>17309</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>57256</v>
+        <v>52885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N10" s="7">
-        <v>81764</v>
+        <v>70194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>2119</v>
+        <v>942</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>2119</v>
+        <v>1958</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,153 +3441,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7">
-        <v>24508</v>
+        <v>18326</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I12" s="7">
-        <v>59375</v>
+        <v>53827</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="N12" s="7">
-        <v>83883</v>
+        <v>72152</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>17309</v>
+        <v>25708</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="H13" s="7">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="I13" s="7">
-        <v>52885</v>
+        <v>87458</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="N13" s="7">
-        <v>70194</v>
+        <v>113167</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>1017</v>
+        <v>2934</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>942</v>
+        <v>5584</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>1958</v>
+        <v>8517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,153 +3596,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7">
-        <v>18326</v>
+        <v>28642</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="I15" s="7">
-        <v>53827</v>
+        <v>93042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="N15" s="7">
-        <v>72152</v>
+        <v>121684</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>25708</v>
+        <v>83010</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="I16" s="7">
-        <v>87458</v>
+        <v>253306</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
-        <v>100</v>
+        <v>306</v>
       </c>
       <c r="N16" s="7">
-        <v>113167</v>
+        <v>336315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>2934</v>
+        <v>3950</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>5584</v>
+        <v>10569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N17" s="7">
-        <v>8517</v>
+        <v>14520</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,217 +3751,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D18" s="7">
-        <v>28642</v>
+        <v>86960</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="I18" s="7">
-        <v>93042</v>
+        <v>263875</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="N18" s="7">
-        <v>121684</v>
+        <v>350835</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>79</v>
-      </c>
-      <c r="D19" s="7">
-        <v>83010</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="7">
-        <v>227</v>
-      </c>
-      <c r="I19" s="7">
-        <v>253306</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" s="7">
-        <v>306</v>
-      </c>
-      <c r="N19" s="7">
-        <v>336315</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>4</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3950</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H20" s="7">
-        <v>10</v>
-      </c>
-      <c r="I20" s="7">
-        <v>10569</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M20" s="7">
-        <v>14</v>
-      </c>
-      <c r="N20" s="7">
-        <v>14520</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>83</v>
-      </c>
-      <c r="D21" s="7">
-        <v>86960</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="7">
-        <v>237</v>
-      </c>
-      <c r="I21" s="7">
-        <v>263875</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="7">
-        <v>320</v>
-      </c>
-      <c r="N21" s="7">
-        <v>350835</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>95</v>
+      <c r="A19" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
